--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="889">
   <si>
     <t>anchor score</t>
   </si>
@@ -262,520 +262,520 @@
     <t>share</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3046,10 +3046,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>0.896551724137931</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K7">
         <v>0.8652482269503546</v>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>0.8375</v>
@@ -3428,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>0.8205128205128205</v>
@@ -3478,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K10">
         <v>0.8085106382978723</v>
@@ -3628,28 +3628,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>0.762114537444934</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3678,28 +3678,28 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3728,28 +3728,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K15">
-        <v>0.7046153846153846</v>
+        <v>0.6936619718309859</v>
       </c>
       <c r="L15">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="M15">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3778,28 +3778,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K16">
-        <v>0.6936619718309859</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="L16">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="M16">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3828,28 +3828,28 @@
         <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="K17">
-        <v>0.6823529411764706</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L17">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="M17">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3878,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K18">
         <v>0.6666666666666666</v>
@@ -3928,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19">
         <v>0.6666666666666666</v>
@@ -4128,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K23">
         <v>0.5379746835443038</v>
@@ -4228,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K25">
         <v>0.4876847290640394</v>
@@ -4278,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K26">
         <v>0.484375</v>
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K27">
         <v>0.4761904761904762</v>
@@ -4378,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K28">
         <v>0.4641148325358851</v>
@@ -4478,7 +4478,7 @@
         <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K30">
         <v>0.4472049689440994</v>
@@ -4628,7 +4628,7 @@
         <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K33">
         <v>0.4421052631578947</v>
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K34">
         <v>0.4390243902439024</v>
@@ -4728,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K35">
         <v>0.425531914893617</v>
@@ -4778,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K36">
         <v>0.4090909090909091</v>
@@ -4928,7 +4928,7 @@
         <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K39">
         <v>0.4</v>
@@ -5228,7 +5228,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K45">
         <v>0.3857142857142857</v>
@@ -5378,7 +5378,7 @@
         <v>21</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K48">
         <v>0.382716049382716</v>
@@ -5928,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K59">
         <v>0.3333333333333333</v>
@@ -5978,7 +5978,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K60">
         <v>0.3333333333333333</v>
@@ -6378,7 +6378,7 @@
         <v>60</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K68">
         <v>0.3236009732360097</v>
@@ -6428,7 +6428,7 @@
         <v>18</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K69">
         <v>0.3220338983050847</v>
@@ -6478,7 +6478,7 @@
         <v>15</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K70">
         <v>0.3166666666666667</v>
@@ -6578,7 +6578,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K72">
         <v>0.3142857142857143</v>
@@ -6678,7 +6678,7 @@
         <v>21</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K74">
         <v>0.3118279569892473</v>
@@ -6807,25 +6807,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>290</v>
@@ -6860,22 +6860,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
         <v>5</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>25</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>291</v>
@@ -6960,10 +6960,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>293</v>
@@ -7007,7 +7007,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>294</v>
@@ -7060,10 +7060,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -7075,10 +7075,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K82">
         <v>0.2916666666666667</v>
@@ -7107,13 +7107,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7125,10 +7125,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K83">
         <v>0.2916666666666667</v>
@@ -7263,16 +7263,16 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>6</v>
@@ -7313,16 +7313,16 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>6</v>
@@ -7357,25 +7357,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>299</v>
@@ -7407,13 +7407,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1351351351351351</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="E89">
         <v>0.9399999999999999</v>
@@ -7425,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>300</v>
@@ -7457,25 +7457,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>301</v>
@@ -7507,28 +7507,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K91">
         <v>0.2845360824742268</v>
@@ -7560,10 +7560,10 @@
         <v>0.125</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7575,10 +7575,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K92">
         <v>0.2826086956521739</v>
@@ -7610,22 +7610,22 @@
         <v>0.125</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>302</v>
@@ -7657,25 +7657,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.125</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>303</v>
@@ -7707,28 +7707,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F95">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K95">
         <v>0.2708333333333333</v>
@@ -7757,28 +7757,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1122448979591837</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K96">
         <v>0.2706935123042505</v>
@@ -7807,28 +7807,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K97">
         <v>0.2671232876712329</v>
@@ -7857,25 +7857,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>304</v>
@@ -7907,13 +7907,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1052631578947368</v>
+        <v>0.09375</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>305</v>
@@ -7957,25 +7957,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1052631578947368</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>306</v>
@@ -8007,13 +8007,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.09375</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>307</v>
@@ -8078,7 +8078,7 @@
         <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K102">
         <v>0.2615384615384616</v>
@@ -8113,16 +8113,16 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>10</v>
@@ -8160,25 +8160,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K104">
         <v>0.2592592592592592</v>
@@ -8213,16 +8213,16 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>10</v>
@@ -8260,25 +8260,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K106">
         <v>0.2545454545454545</v>
@@ -8307,28 +8307,28 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.09090909090909091</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K107">
         <v>0.2535211267605634</v>
@@ -8357,25 +8357,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>310</v>
@@ -8407,25 +8407,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.08860759493670886</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>311</v>
@@ -8457,25 +8457,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>312</v>
@@ -8507,7 +8507,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>313</v>
@@ -8560,22 +8560,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>314</v>
@@ -8613,16 +8613,16 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>12</v>
@@ -8657,25 +8657,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>316</v>
@@ -8707,25 +8707,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E115">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F115">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>317</v>
@@ -8757,28 +8757,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K116">
         <v>0.25</v>
@@ -8807,25 +8807,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F117">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>318</v>
@@ -8857,25 +8857,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="E118">
-        <v>0.7</v>
+        <v>0.99</v>
       </c>
       <c r="F118">
-        <v>0.3</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>319</v>
@@ -8907,13 +8907,13 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E119">
         <v>0.67</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>320</v>
@@ -8957,25 +8957,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F120">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>321</v>
@@ -9007,28 +9007,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K121">
         <v>0.248062015503876</v>
@@ -9057,25 +9057,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>322</v>
@@ -9107,25 +9107,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>323</v>
@@ -9213,13 +9213,13 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E125">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F125">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -9228,7 +9228,7 @@
         <v>15</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K125">
         <v>0.2429906542056075</v>
@@ -9257,7 +9257,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>325</v>
@@ -9307,28 +9307,28 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E127">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F127">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K127">
         <v>0.2384615384615385</v>
@@ -9357,25 +9357,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.05882352941176471</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>326</v>
@@ -9407,25 +9407,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129">
+        <v>24</v>
+      </c>
+      <c r="E129">
+        <v>0.92</v>
+      </c>
+      <c r="F129">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129">
         <v>33</v>
-      </c>
-      <c r="E129">
-        <v>0.88</v>
-      </c>
-      <c r="F129">
-        <v>0.12</v>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>64</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>327</v>
@@ -9457,25 +9457,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.05813953488372093</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>328</v>
@@ -9507,25 +9507,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F131">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>329</v>
@@ -9557,25 +9557,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05555555555555555</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>330</v>
@@ -9607,25 +9607,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>331</v>
@@ -9657,13 +9657,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05454545454545454</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="C134">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D134">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="E134">
         <v>0.9399999999999999</v>
@@ -9675,10 +9675,10 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K134">
         <v>0.2292993630573248</v>
@@ -9707,28 +9707,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K135">
         <v>0.2291296625222025</v>
@@ -9757,25 +9757,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05084745762711865</v>
+        <v>0.05</v>
       </c>
       <c r="C136">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E136">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F136">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>332</v>
@@ -9807,25 +9807,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F137">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>333</v>
@@ -9857,25 +9857,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="F138">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>334</v>
@@ -9907,25 +9907,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>335</v>
@@ -9957,7 +9957,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -9975,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>336</v>
@@ -10007,25 +10007,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>337</v>
@@ -10057,25 +10057,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F142">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>338</v>
@@ -10107,28 +10107,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F143">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K143">
         <v>0.21875</v>
@@ -10163,13 +10163,13 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E144">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F144">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
@@ -10178,7 +10178,7 @@
         <v>22</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K144">
         <v>0.217948717948718</v>
@@ -10207,13 +10207,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04347826086956522</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E145">
         <v>0.8</v>
@@ -10225,10 +10225,10 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K145">
         <v>0.2142857142857143</v>
@@ -10257,25 +10257,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F146">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>339</v>
@@ -10307,25 +10307,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E147">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F147">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>340</v>
@@ -10357,25 +10357,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E148">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F148">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>341</v>
@@ -10407,25 +10407,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>342</v>
@@ -10457,28 +10457,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.03883495145631068</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E150">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K150">
         <v>0.2051282051282051</v>
@@ -10507,7 +10507,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10525,10 +10525,10 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K151">
         <v>0.2016129032258064</v>
@@ -10557,13 +10557,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E152">
         <v>0.95</v>
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>343</v>
@@ -10613,16 +10613,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>27</v>
@@ -10657,25 +10657,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E154">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F154">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>345</v>
@@ -10707,25 +10707,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>346</v>
@@ -10757,28 +10757,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.03448275862068965</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="C156">
         <v>5</v>
       </c>
       <c r="D156">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K156">
         <v>0.2</v>
@@ -10807,25 +10807,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>347</v>
@@ -10857,25 +10857,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03355704697986577</v>
+        <v>0.03125</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>348</v>
@@ -10907,13 +10907,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.03225806451612903</v>
+        <v>0.03</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E159">
         <v>0.75</v>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>349</v>
@@ -10957,25 +10957,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>350</v>
@@ -11007,25 +11007,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C161">
         <v>3</v>
       </c>
       <c r="D161">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E161">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F161">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>351</v>
@@ -11063,22 +11063,22 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>33</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K162">
         <v>0.2</v>
@@ -11110,22 +11110,22 @@
         <v>0.02941176470588235</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E163">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>352</v>
@@ -11163,13 +11163,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E164">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F164">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -11213,16 +11213,16 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>33</v>
@@ -11257,25 +11257,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E166">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F166">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>355</v>
@@ -11307,7 +11307,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>356</v>
@@ -11357,25 +11357,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E168">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F168">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>357</v>
@@ -11407,7 +11407,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>358</v>
@@ -11457,25 +11457,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.02777777777777778</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="F170">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>359</v>
@@ -11507,7 +11507,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>77</v>
@@ -11557,28 +11557,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.02666666666666667</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F172">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K172">
         <v>0.1962616822429906</v>
@@ -11607,7 +11607,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>360</v>
@@ -11657,25 +11657,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E174">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F174">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>361</v>
@@ -11707,7 +11707,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11725,10 +11725,10 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K175">
         <v>0.1923076923076923</v>
@@ -11757,28 +11757,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E176">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F176">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K176">
         <v>0.191304347826087</v>
@@ -11807,28 +11807,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K177">
         <v>0.1904761904761905</v>
@@ -11857,25 +11857,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>362</v>
@@ -11907,25 +11907,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E179">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F179">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>363</v>
@@ -11957,25 +11957,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>364</v>
@@ -12007,28 +12007,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F181">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K181">
         <v>0.1886792452830189</v>
@@ -12057,25 +12057,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02272727272727273</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E182">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>365</v>
@@ -12107,25 +12107,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E183">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F183">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>366</v>
@@ -12157,25 +12157,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02197802197802198</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>367</v>
@@ -12207,25 +12207,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02173913043478261</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
       <c r="D185">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F185">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>368</v>
@@ -12257,28 +12257,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F186">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K186">
         <v>0.1863354037267081</v>
@@ -12307,25 +12307,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02105263157894737</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>369</v>
@@ -12357,25 +12357,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E188">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F188">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>370</v>
@@ -12407,25 +12407,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E189">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F189">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>371</v>
@@ -12457,25 +12457,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0202020202020202</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E190">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F190">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>372</v>
@@ -12507,25 +12507,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F191">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>373</v>
@@ -12563,13 +12563,13 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F192">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -12613,13 +12613,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F193">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -12657,25 +12657,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.01923076923076923</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F194">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>376</v>
@@ -12707,7 +12707,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>377</v>
@@ -12757,25 +12757,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.01872659176029963</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
         <v>5</v>
       </c>
-      <c r="D196">
-        <v>65</v>
-      </c>
       <c r="E196">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>262</v>
+        <v>54</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>378</v>
@@ -12807,25 +12807,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E197">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F197">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>379</v>
@@ -12857,25 +12857,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>380</v>
@@ -12907,25 +12907,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.01818181818181818</v>
+        <v>0.0176678445229682</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D199">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="E199">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F199">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>381</v>
@@ -12957,7 +12957,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>382</v>
@@ -13007,28 +13007,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0176678445229682</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="E201">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F201">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>278</v>
+        <v>59</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K201">
         <v>0.1803704907377316</v>
@@ -13057,28 +13057,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01694915254237288</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K202">
         <v>0.1774193548387097</v>
@@ -13107,25 +13107,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>383</v>
@@ -13157,25 +13157,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01626016260162602</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E204">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F204">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>384</v>
@@ -13207,25 +13207,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>385</v>
@@ -13257,25 +13257,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01612903225806452</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>386</v>
@@ -13307,25 +13307,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01538461538461539</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>387</v>
@@ -13357,25 +13357,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01515151515151515</v>
+        <v>0.015</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>388</v>
@@ -13407,25 +13407,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01515151515151515</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>294</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>389</v>
@@ -13457,28 +13457,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.015</v>
+        <v>0.01413427561837456</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E210">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K210">
         <v>0.1707317073170732</v>
@@ -13507,28 +13507,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01477832512315271</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C211">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>600</v>
+        <v>71</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K211">
         <v>0.1695713612812058</v>
@@ -13557,25 +13557,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01413427561837456</v>
+        <v>0.01384083044982699</v>
       </c>
       <c r="C212">
         <v>4</v>
       </c>
       <c r="D212">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>390</v>
@@ -13607,25 +13607,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01388888888888889</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>391</v>
@@ -13657,25 +13657,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01384083044982699</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D214">
         <v>8</v>
       </c>
       <c r="E214">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F214">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>392</v>
@@ -13707,28 +13707,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01351351351351351</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F215">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K215">
         <v>0.1666666666666667</v>
@@ -13757,25 +13757,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01282051282051282</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>393</v>
@@ -13807,25 +13807,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E217">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F217">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>394</v>
@@ -13863,16 +13863,16 @@
         <v>2</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
         <v>164</v>
@@ -13907,25 +13907,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01204819277108434</v>
+        <v>0.01175548589341693</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D219">
-        <v>10</v>
+        <v>585</v>
       </c>
       <c r="E219">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F219">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>82</v>
+        <v>2522</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>396</v>
@@ -13957,25 +13957,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01204819277108434</v>
+        <v>0.01121704991587213</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D220">
-        <v>21</v>
+        <v>380</v>
       </c>
       <c r="E220">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F220">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>164</v>
+        <v>1763</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>397</v>
@@ -14007,25 +14007,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01175548589341693</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C221">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>2522</v>
+        <v>89</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>398</v>
@@ -14057,25 +14057,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01121704991587213</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C222">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>380</v>
+        <v>14</v>
       </c>
       <c r="E222">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F222">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>1763</v>
+        <v>90</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>399</v>
@@ -14107,25 +14107,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01111111111111111</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>400</v>
@@ -14157,25 +14157,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01098901098901099</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E224">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F224">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>401</v>
@@ -14207,25 +14207,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0108695652173913</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F225">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>402</v>
@@ -14257,25 +14257,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01075268817204301</v>
+        <v>0.01062215477996965</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D226">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="E226">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>92</v>
+        <v>652</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>403</v>
@@ -14307,25 +14307,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01063829787234043</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F227">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>404</v>
@@ -14357,25 +14357,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01062215477996965</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C228">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>249</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>652</v>
+        <v>98</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>405</v>
@@ -14407,25 +14407,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01030927835051546</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E229">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F229">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>406</v>
@@ -14457,25 +14457,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0101010101010101</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E230">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F230">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>407</v>
@@ -14507,25 +14507,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.009345794392523364</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E231">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F231">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>408</v>
@@ -14557,13 +14557,13 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.009259259259259259</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D232">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="E232">
         <v>0.97</v>
@@ -14575,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>107</v>
+        <v>434</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>409</v>
@@ -14607,25 +14607,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.009216589861751152</v>
+        <v>0.008976660682226212</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D233">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E233">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F233">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>215</v>
+        <v>552</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>410</v>
@@ -14657,25 +14657,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0091324200913242</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E234">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F234">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>411</v>
@@ -14707,13 +14707,13 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.008976660682226212</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E235">
         <v>0.95</v>
@@ -14725,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>552</v>
+        <v>116</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>412</v>
@@ -14757,25 +14757,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.008928571428571428</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F236">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>413</v>
@@ -14807,25 +14807,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.008547008547008548</v>
+        <v>0.00625</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D237">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E237">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F237">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>116</v>
+        <v>795</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>414</v>
@@ -14857,25 +14857,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.008474576271186441</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F238">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>117</v>
+        <v>348</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>415</v>
@@ -14907,28 +14907,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.00625</v>
+        <v>0.00419287211740042</v>
       </c>
       <c r="C239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D239">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E239">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="F239">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>795</v>
+        <v>950</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K239">
         <v>0.1590909090909091</v>
@@ -14957,28 +14957,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.005714285714285714</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K240">
         <v>0.1581196581196581</v>
@@ -15007,25 +15007,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.00419287211740042</v>
+        <v>0.003460207612456748</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D241">
         <v>18</v>
       </c>
       <c r="E241">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F241">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>950</v>
+        <v>288</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>416</v>
@@ -15057,25 +15057,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.003968253968253968</v>
+        <v>0.002873563218390805</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>417</v>
@@ -15107,28 +15107,28 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.003460207612456748</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K243">
         <v>0.15625</v>
@@ -15157,28 +15157,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002873563218390805</v>
+        <v>0.001967858314201377</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D244">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E244">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F244">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>347</v>
+        <v>3043</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K244">
         <v>0.1558441558441558</v>
@@ -15207,28 +15207,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002680965147453083</v>
+        <v>0.001879699248120301</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K245">
         <v>0.1555555555555556</v>
@@ -15257,13 +15257,13 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.001967858314201377</v>
+        <v>0.001803426510369702</v>
       </c>
       <c r="C246">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="E246">
         <v>0.96</v>
@@ -15275,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>3043</v>
+        <v>1107</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>7</v>
@@ -15303,30 +15303,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0.001879699248120301</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>14</v>
-      </c>
-      <c r="E247">
-        <v>0.93</v>
-      </c>
-      <c r="F247">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247">
-        <v>531</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>418</v>
       </c>
@@ -15353,32 +15329,8 @@
       </c>
     </row>
     <row r="248" spans="1:17">
-      <c r="A248" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248">
-        <v>0.001803426510369702</v>
-      </c>
-      <c r="C248">
-        <v>2</v>
-      </c>
-      <c r="D248">
-        <v>54</v>
-      </c>
-      <c r="E248">
-        <v>0.96</v>
-      </c>
-      <c r="F248">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248">
-        <v>1107</v>
-      </c>
       <c r="J248" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K248">
         <v>0.1538461538461539</v>
@@ -15586,7 +15538,7 @@
     </row>
     <row r="256" spans="1:17">
       <c r="J256" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K256">
         <v>0.1532846715328467</v>
@@ -15716,7 +15668,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K261">
         <v>0.1454545454545454</v>
@@ -15768,7 +15720,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K263">
         <v>0.1441860465116279</v>
@@ -16652,7 +16604,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K297">
         <v>0.1333333333333333</v>
@@ -16756,7 +16708,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K301">
         <v>0.1320754716981132</v>
@@ -16782,7 +16734,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K302">
         <v>0.131578947368421</v>
@@ -16938,7 +16890,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K308">
         <v>0.1304347826086956</v>
@@ -16990,7 +16942,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K310">
         <v>0.1290322580645161</v>
@@ -17016,7 +16968,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K311">
         <v>0.1262135922330097</v>
@@ -18030,7 +17982,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K350">
         <v>0.1224489795918367</v>
@@ -18342,7 +18294,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K362">
         <v>0.1136363636363636</v>
@@ -18784,7 +18736,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K379">
         <v>0.1111111111111111</v>
@@ -19096,7 +19048,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K391">
         <v>0.1052631578947368</v>
@@ -19200,7 +19152,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K395">
         <v>0.1038251366120219</v>
@@ -19252,7 +19204,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K397">
         <v>0.1016949152542373</v>
@@ -19824,7 +19776,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K419">
         <v>0.0989010989010989</v>
@@ -20058,7 +20010,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K428">
         <v>0.09090909090909091</v>
@@ -20136,7 +20088,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K431">
         <v>0.09090909090909091</v>
@@ -20838,7 +20790,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K458">
         <v>0.08749999999999999</v>
@@ -20968,7 +20920,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K463">
         <v>0.08490566037735849</v>
@@ -21098,7 +21050,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K468">
         <v>0.08333333333333333</v>
@@ -21410,7 +21362,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K480">
         <v>0.07874015748031496</v>
@@ -21436,7 +21388,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K481">
         <v>0.0777262180974478</v>
@@ -21800,7 +21752,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K495">
         <v>0.07692307692307693</v>
@@ -21852,7 +21804,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K497">
         <v>0.07692307692307693</v>
@@ -22216,7 +22168,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K511">
         <v>0.07272727272727272</v>
@@ -22814,7 +22766,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K534">
         <v>0.06896551724137931</v>
@@ -22918,7 +22870,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K538">
         <v>0.06666666666666667</v>
@@ -23750,7 +23702,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K570">
         <v>0.06153846153846154</v>
@@ -23776,7 +23728,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K571">
         <v>0.06060606060606061</v>
@@ -23854,7 +23806,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K574">
         <v>0.06</v>
@@ -24036,7 +23988,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K581">
         <v>0.05797101449275362</v>
@@ -24062,7 +24014,7 @@
     </row>
     <row r="582" spans="10:17">
       <c r="J582" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K582">
         <v>0.05573770491803279</v>
@@ -24374,7 +24326,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K594">
         <v>0.05333333333333334</v>
@@ -24790,7 +24742,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K610">
         <v>0.05128205128205128</v>
@@ -24816,7 +24768,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K611">
         <v>0.05102040816326531</v>
@@ -25128,7 +25080,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K623">
         <v>0.04838709677419355</v>
@@ -25258,7 +25210,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K628">
         <v>0.04757433489827856</v>
@@ -25362,7 +25314,7 @@
     </row>
     <row r="632" spans="10:17">
       <c r="J632" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K632">
         <v>0.04545454545454546</v>
@@ -25492,7 +25444,7 @@
     </row>
     <row r="637" spans="10:17">
       <c r="J637" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K637">
         <v>0.04486626402070751</v>
@@ -25622,7 +25574,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K642">
         <v>0.04347826086956522</v>
@@ -25804,7 +25756,7 @@
     </row>
     <row r="649" spans="10:17">
       <c r="J649" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K649">
         <v>0.04</v>
@@ -26324,7 +26276,7 @@
     </row>
     <row r="669" spans="10:17">
       <c r="J669" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K669">
         <v>0.03571428571428571</v>
@@ -26714,7 +26666,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K684">
         <v>0.03191489361702127</v>
@@ -27026,7 +26978,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K696">
         <v>0.02793296089385475</v>
@@ -27520,7 +27472,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K715">
         <v>0.02389705882352941</v>
@@ -28378,7 +28330,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K748">
         <v>0.01538461538461539</v>
@@ -28430,7 +28382,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K750">
         <v>0.01452282157676349</v>
@@ -28482,7 +28434,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K752">
         <v>0.01384083044982699</v>
@@ -28742,7 +28694,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K762">
         <v>0.0101010101010101</v>
